--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JR.Mateo\MVP\marsframework-master\marsframework-master\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B50B03E-93E9-411B-97C9-BF0C1F3A260E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AFC398-8598-47C7-A792-9B6F0107FBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="6780" windowWidth="27330" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Url</t>
   </si>
@@ -138,13 +138,13 @@
     <t>Mon</t>
   </si>
   <si>
+    <t>6:00pm</t>
+  </si>
+  <si>
+    <t>8:00pm</t>
+  </si>
+  <si>
     <t>Skill-exchange</t>
-  </si>
-  <si>
-    <t>6:00pm</t>
-  </si>
-  <si>
-    <t>8:00pm</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,19 +742,19 @@
         <v>37</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" t="s">
-        <v>11</v>
+      <c r="O2">
+        <v>2</v>
       </c>
       <c r="P2" t="s">
         <v>30</v>
